--- a/Code/Results/Cases/Case_3_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_150/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.54310194201367</v>
+        <v>17.34599836510662</v>
       </c>
       <c r="C2">
-        <v>13.38978134434034</v>
+        <v>11.80355612291052</v>
       </c>
       <c r="D2">
-        <v>4.248313255453983</v>
+        <v>4.763576408364015</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.53016855315776</v>
+        <v>24.07637840253037</v>
       </c>
       <c r="G2">
-        <v>2.068690500518909</v>
+        <v>3.626892908436322</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.102109469595399</v>
+        <v>10.68693129779342</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.44956312334203</v>
+        <v>21.49639139889986</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.8862303423902</v>
+        <v>16.68438401551996</v>
       </c>
       <c r="C3">
-        <v>12.92342603523323</v>
+        <v>11.62877742975136</v>
       </c>
       <c r="D3">
-        <v>4.14241529077179</v>
+        <v>4.730888068236987</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.02701786026869</v>
+        <v>24.11704897371636</v>
       </c>
       <c r="G3">
-        <v>2.074971050743483</v>
+        <v>3.629230137562073</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.809846826712037</v>
+        <v>10.6605434325542</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.32135829730142</v>
+        <v>21.59038533749178</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.80941106640633</v>
+        <v>16.26584124609315</v>
       </c>
       <c r="C4">
-        <v>12.6299068367821</v>
+        <v>11.52039494055212</v>
       </c>
       <c r="D4">
-        <v>4.076173956990411</v>
+        <v>4.710693224892956</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.73895592328991</v>
+        <v>24.1512997303878</v>
       </c>
       <c r="G4">
-        <v>2.078937800356723</v>
+        <v>3.630740728564255</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.63026361727221</v>
+        <v>10.64654539395664</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.2646466895595</v>
+        <v>21.65520489665389</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.35553182235264</v>
+        <v>16.0924294813344</v>
       </c>
       <c r="C5">
-        <v>12.5086232428498</v>
+        <v>11.47600134922573</v>
       </c>
       <c r="D5">
-        <v>4.048897583061409</v>
+        <v>4.702436592914898</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.62685770665161</v>
+        <v>24.1675792204104</v>
       </c>
       <c r="G5">
-        <v>2.080582946318299</v>
+        <v>3.631375359955832</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.557145241697103</v>
+        <v>10.64139923842723</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.24684878509873</v>
+        <v>21.68339677888074</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.2792524658816</v>
+        <v>16.06346995360765</v>
       </c>
       <c r="C6">
-        <v>12.48838735854181</v>
+        <v>11.46861735782336</v>
       </c>
       <c r="D6">
-        <v>4.044352043606055</v>
+        <v>4.701064070915101</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.60856403368389</v>
+        <v>24.17042230371456</v>
       </c>
       <c r="G6">
-        <v>2.080857877770184</v>
+        <v>3.631481892624139</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.545010793996833</v>
+        <v>10.64057853803337</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.24420752034853</v>
+        <v>21.68818508016698</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.80335103595816</v>
+        <v>16.26351376199495</v>
       </c>
       <c r="C7">
-        <v>12.62827774857598</v>
+        <v>11.51979709599043</v>
       </c>
       <c r="D7">
-        <v>4.075807208741684</v>
+        <v>4.71058197723869</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.7374226760042</v>
+        <v>24.15150989551022</v>
       </c>
       <c r="G7">
-        <v>2.07895987017563</v>
+        <v>3.630749210195991</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.629277127473133</v>
+        <v>10.64647372638968</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.26438545549099</v>
+        <v>21.6555779187436</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.98409540050679</v>
+        <v>17.12056599841001</v>
       </c>
       <c r="C8">
-        <v>13.2305457906415</v>
+        <v>11.74353873623275</v>
       </c>
       <c r="D8">
-        <v>4.212066650970558</v>
+        <v>4.752333697104516</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.35238082616852</v>
+        <v>24.08846951891266</v>
       </c>
       <c r="G8">
-        <v>2.070833655449648</v>
+        <v>3.62768314792349</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.001420132522696</v>
+        <v>10.67737776486871</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.40066319199642</v>
+        <v>21.5273197219727</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.79343078456735</v>
+        <v>18.69422880829824</v>
       </c>
       <c r="C9">
-        <v>14.34963848542375</v>
+        <v>12.1720427316766</v>
       </c>
       <c r="D9">
-        <v>4.468638113801182</v>
+        <v>4.833043863193208</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.72121572264821</v>
+        <v>24.03889744482203</v>
       </c>
       <c r="G9">
-        <v>2.055731965862204</v>
+        <v>3.622266996460513</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.726378921941965</v>
+        <v>10.75527663621925</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.85138859014848</v>
+        <v>21.33261671540938</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.31450263950794</v>
+        <v>19.77437357126453</v>
       </c>
       <c r="C10">
-        <v>15.12841977772566</v>
+        <v>12.47830880223908</v>
       </c>
       <c r="D10">
-        <v>4.649537237734724</v>
+        <v>4.89139183997344</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.82185883635928</v>
+        <v>24.04808907893902</v>
       </c>
       <c r="G10">
-        <v>2.045081226739315</v>
+        <v>3.618647326835275</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.25181309020042</v>
+        <v>10.82276221509853</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.3049771489387</v>
+        <v>21.22475710247085</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.40273213510319</v>
+        <v>20.24742276612968</v>
       </c>
       <c r="C11">
-        <v>15.47237649263994</v>
+        <v>12.61531707549802</v>
       </c>
       <c r="D11">
-        <v>4.729990356916926</v>
+        <v>4.917679031752522</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.34223038800993</v>
+        <v>24.0622372531042</v>
       </c>
       <c r="G11">
-        <v>2.040317082721687</v>
+        <v>3.617077872730621</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.488615663691562</v>
+        <v>10.85561723277127</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.53974103667998</v>
+        <v>21.18344135714538</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.80652480306231</v>
+        <v>20.42379472742818</v>
       </c>
       <c r="C12">
-        <v>15.60108283454467</v>
+        <v>12.66682918733896</v>
       </c>
       <c r="D12">
-        <v>4.760178451216137</v>
+        <v>4.927592296833291</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.54204132680461</v>
+        <v>24.06903004278417</v>
       </c>
       <c r="G12">
-        <v>2.038523283048646</v>
+        <v>3.616494590948344</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.577927084908664</v>
+        <v>10.86836164481043</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.63285018610717</v>
+        <v>21.16891915910962</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.71992761584114</v>
+        <v>20.3859345394798</v>
       </c>
       <c r="C13">
-        <v>15.57343304009878</v>
+        <v>12.65575216088796</v>
       </c>
       <c r="D13">
-        <v>4.753689445605583</v>
+        <v>4.925459195887486</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.4988868110719</v>
+        <v>24.06750325371124</v>
       </c>
       <c r="G13">
-        <v>2.038909175627992</v>
+        <v>3.616619721186104</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.558708839703021</v>
+        <v>10.86560355140582</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.61260849001727</v>
+        <v>21.17199668672945</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.43611788448644</v>
+        <v>20.26198900856468</v>
       </c>
       <c r="C14">
-        <v>15.48299645214995</v>
+        <v>12.61956262955325</v>
       </c>
       <c r="D14">
-        <v>4.732479584292318</v>
+        <v>4.918495451082054</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.35861404958308</v>
+        <v>24.06276733261129</v>
       </c>
       <c r="G14">
-        <v>2.040169307938548</v>
+        <v>3.617029664931882</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.49597078870781</v>
+        <v>10.85665969389423</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.54731618363484</v>
+        <v>21.18222404871437</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.26119987434384</v>
+        <v>20.18570566672028</v>
       </c>
       <c r="C15">
-        <v>15.4273989919548</v>
+        <v>12.59734624205353</v>
       </c>
       <c r="D15">
-        <v>4.719451404032346</v>
+        <v>4.914224471883544</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.27305015088072</v>
+        <v>24.06005337176236</v>
       </c>
       <c r="G15">
-        <v>2.040942471644913</v>
+        <v>3.617282202868879</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.457493940979896</v>
+        <v>10.85122055712126</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.50787425771574</v>
+        <v>21.18863512507739</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.24221595658275</v>
+        <v>19.74307882092131</v>
       </c>
       <c r="C16">
-        <v>15.10572847521674</v>
+        <v>12.46930521018738</v>
       </c>
       <c r="D16">
-        <v>4.644241242083469</v>
+        <v>4.88966839236384</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.78824083514172</v>
+        <v>24.04736523397434</v>
       </c>
       <c r="G16">
-        <v>2.045394089583292</v>
+        <v>3.61875144188363</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.236289006015598</v>
+        <v>10.8206578460571</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.29021753343881</v>
+        <v>21.22761389174031</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.60218139432343</v>
+        <v>19.46675412766277</v>
       </c>
       <c r="C17">
-        <v>14.90570589940319</v>
+        <v>12.39013656587294</v>
       </c>
       <c r="D17">
-        <v>4.597621049780642</v>
+        <v>4.87453544573854</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.49581099224697</v>
+        <v>24.04213624626151</v>
       </c>
       <c r="G17">
-        <v>2.04814480830201</v>
+        <v>3.61967249152227</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.099985140424293</v>
+        <v>10.80245583056448</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.16406432701583</v>
+        <v>21.25351744408405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.22852464861434</v>
+        <v>19.30610211009949</v>
       </c>
       <c r="C18">
-        <v>14.78969004633327</v>
+        <v>12.34438520344726</v>
       </c>
       <c r="D18">
-        <v>4.570633921638765</v>
+        <v>4.865807576019749</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.32946944175056</v>
+        <v>24.04006680562476</v>
       </c>
       <c r="G18">
-        <v>2.049734654192714</v>
+        <v>3.620209520237216</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.021379518280092</v>
+        <v>10.79218984768787</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.09417364959106</v>
+        <v>21.26914546772143</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.1010578814282</v>
+        <v>19.25141733233956</v>
       </c>
       <c r="C19">
-        <v>14.75024480603354</v>
+        <v>12.32885870183657</v>
       </c>
       <c r="D19">
-        <v>4.561467374107907</v>
+        <v>4.862848515673679</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.27347034520465</v>
+        <v>24.03952716201094</v>
       </c>
       <c r="G19">
-        <v>2.050274311718249</v>
+        <v>3.620392598530905</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.994730865637846</v>
+        <v>10.78874909191471</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.07096433720899</v>
+        <v>21.27456177895334</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.67088512066005</v>
+        <v>19.49634808690645</v>
       </c>
       <c r="C20">
-        <v>14.92709931470107</v>
+        <v>12.39858679747897</v>
       </c>
       <c r="D20">
-        <v>4.602601798402332</v>
+        <v>4.876148868643495</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.52674909916425</v>
+        <v>24.04259576695457</v>
       </c>
       <c r="G20">
-        <v>2.047851201633132</v>
+        <v>3.619573692702173</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.114516705886304</v>
+        <v>10.80437247124481</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.17721635316919</v>
+        <v>21.25068445481391</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.51970374684896</v>
+        <v>20.29847069441304</v>
       </c>
       <c r="C21">
-        <v>15.50960214667344</v>
+        <v>12.63020270084493</v>
       </c>
       <c r="D21">
-        <v>4.738717067557673</v>
+        <v>4.920542022413593</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.39974122258316</v>
+        <v>24.06411943118408</v>
       </c>
       <c r="G21">
-        <v>2.039798908976251</v>
+        <v>3.61690895544986</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.514408531014231</v>
+        <v>10.85927855843891</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.56637898973342</v>
+        <v>21.17918947465659</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.6797233642568</v>
+        <v>20.80656072651161</v>
       </c>
       <c r="C22">
-        <v>15.88129117454137</v>
+        <v>12.77940467632309</v>
       </c>
       <c r="D22">
-        <v>4.826052769924075</v>
+        <v>4.94931382161916</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.98634392704352</v>
+        <v>24.08655123992911</v>
       </c>
       <c r="G22">
-        <v>2.03459546592458</v>
+        <v>3.615231697757849</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.773648564126242</v>
+        <v>10.89692499782763</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.84529951925449</v>
+        <v>21.13901382617841</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.06497194144942</v>
+        <v>20.53689845052159</v>
       </c>
       <c r="C23">
-        <v>15.68375456964328</v>
+        <v>12.6999834128005</v>
       </c>
       <c r="D23">
-        <v>4.779592409318194</v>
+        <v>4.933981316650288</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.67181390230918</v>
+        <v>24.07381344298359</v>
       </c>
       <c r="G23">
-        <v>2.037367704079894</v>
+        <v>3.616121017133286</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.635491117619452</v>
+        <v>10.87667358477604</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.69414898915036</v>
+        <v>21.15985419915949</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.63984190637248</v>
+        <v>19.4829742212286</v>
       </c>
       <c r="C24">
-        <v>14.91743052472474</v>
+        <v>12.39476718081056</v>
       </c>
       <c r="D24">
-        <v>4.600350575769423</v>
+        <v>4.875419526193646</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.51275643012355</v>
+        <v>24.04238509978239</v>
       </c>
       <c r="G24">
-        <v>2.04798391487702</v>
+        <v>3.619618336266205</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.107947737860437</v>
+        <v>10.80350533885797</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.17126211948632</v>
+        <v>21.2519629581249</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.81219180409348</v>
+        <v>18.281172015905</v>
       </c>
       <c r="C25">
-        <v>14.05416577697517</v>
+        <v>12.05746162088409</v>
       </c>
       <c r="D25">
-        <v>4.400491352575515</v>
+        <v>4.811359109535113</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.3338930734345</v>
+        <v>24.04432491042455</v>
       </c>
       <c r="G25">
-        <v>2.059734429356099</v>
+        <v>3.623668776202825</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.531255299102279</v>
+        <v>10.73237926490968</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.70863776518356</v>
+        <v>21.37914832880835</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_150/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.34599836510662</v>
+        <v>24.5431019420137</v>
       </c>
       <c r="C2">
-        <v>11.80355612291052</v>
+        <v>13.38978134433994</v>
       </c>
       <c r="D2">
-        <v>4.763576408364015</v>
+        <v>4.248313255453965</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.07637840253037</v>
+        <v>18.53016855315783</v>
       </c>
       <c r="G2">
-        <v>3.626892908436322</v>
+        <v>2.068690500519043</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.68693129779342</v>
+        <v>8.102109469595408</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.49639139889986</v>
+        <v>14.4495631233421</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.68438401551996</v>
+        <v>22.88623034239019</v>
       </c>
       <c r="C3">
-        <v>11.62877742975136</v>
+        <v>12.92342603523321</v>
       </c>
       <c r="D3">
-        <v>4.730888068236987</v>
+        <v>4.142415290771785</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.11704897371636</v>
+        <v>18.02701786026872</v>
       </c>
       <c r="G3">
-        <v>3.629230137562073</v>
+        <v>2.074971050743752</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.6605434325542</v>
+        <v>7.809846826712047</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.59038533749178</v>
+        <v>14.32135829730147</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.26584124609315</v>
+        <v>21.80941106640628</v>
       </c>
       <c r="C4">
-        <v>11.52039494055212</v>
+        <v>12.62990683678209</v>
       </c>
       <c r="D4">
-        <v>4.710693224892956</v>
+        <v>4.076173956990337</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.1512997303878</v>
+        <v>17.73895592329</v>
       </c>
       <c r="G4">
-        <v>3.630740728564255</v>
+        <v>2.078937800356857</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.64654539395664</v>
+        <v>7.630263617272193</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.65520489665389</v>
+        <v>14.26464668955952</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.0924294813344</v>
+        <v>21.35553182235261</v>
       </c>
       <c r="C5">
-        <v>11.47600134922573</v>
+        <v>12.50862324284993</v>
       </c>
       <c r="D5">
-        <v>4.702436592914898</v>
+        <v>4.04889758306151</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.1675792204104</v>
+        <v>17.62685770665155</v>
       </c>
       <c r="G5">
-        <v>3.631375359955832</v>
+        <v>2.080582946318433</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.64139923842723</v>
+        <v>7.557145241697116</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.68339677888074</v>
+        <v>14.24684878509876</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.06346995360765</v>
+        <v>21.27925246588155</v>
       </c>
       <c r="C6">
-        <v>11.46861735782336</v>
+        <v>12.48838735854185</v>
       </c>
       <c r="D6">
-        <v>4.701064070915101</v>
+        <v>4.044352043606001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.17042230371456</v>
+        <v>17.60856403368396</v>
       </c>
       <c r="G6">
-        <v>3.631481892624139</v>
+        <v>2.08085787777018</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.64057853803337</v>
+        <v>7.545010793996851</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.68818508016698</v>
+        <v>14.24420752034859</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.26351376199495</v>
+        <v>21.80335103595818</v>
       </c>
       <c r="C7">
-        <v>11.51979709599043</v>
+        <v>12.62827774857591</v>
       </c>
       <c r="D7">
-        <v>4.71058197723869</v>
+        <v>4.075807208741752</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.15150989551022</v>
+        <v>17.73742267600424</v>
       </c>
       <c r="G7">
-        <v>3.630749210195991</v>
+        <v>2.078959870175629</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.64647372638968</v>
+        <v>7.629277127473093</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.6555779187436</v>
+        <v>14.26438545549104</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.12056599841001</v>
+        <v>23.98409540050682</v>
       </c>
       <c r="C8">
-        <v>11.74353873623275</v>
+        <v>13.23054579064131</v>
       </c>
       <c r="D8">
-        <v>4.752333697104516</v>
+        <v>4.212066650970507</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.08846951891266</v>
+        <v>18.35238082616838</v>
       </c>
       <c r="G8">
-        <v>3.62768314792349</v>
+        <v>2.070833655449515</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.67737776486871</v>
+        <v>8.001420132522645</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.5273197219727</v>
+        <v>14.40066319199628</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.69422880829824</v>
+        <v>27.7934307845673</v>
       </c>
       <c r="C9">
-        <v>12.1720427316766</v>
+        <v>14.34963848542403</v>
       </c>
       <c r="D9">
-        <v>4.833043863193208</v>
+        <v>4.468638113801136</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.03889744482203</v>
+        <v>19.72121572264823</v>
       </c>
       <c r="G9">
-        <v>3.622266996460513</v>
+        <v>2.055731965861935</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.75527663621925</v>
+        <v>8.726378921941929</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.33261671540938</v>
+        <v>14.85138859014848</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.77437357126453</v>
+        <v>30.314502639508</v>
       </c>
       <c r="C10">
-        <v>12.47830880223908</v>
+        <v>15.12841977772574</v>
       </c>
       <c r="D10">
-        <v>4.89139183997344</v>
+        <v>4.649537237734629</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.04808907893902</v>
+        <v>20.82185883635923</v>
       </c>
       <c r="G10">
-        <v>3.618647326835275</v>
+        <v>2.045081226739047</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.82276221509853</v>
+        <v>9.251813090200432</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.22475710247085</v>
+        <v>15.30497714893862</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.24742276612968</v>
+        <v>31.40273213510311</v>
       </c>
       <c r="C11">
-        <v>12.61531707549802</v>
+        <v>15.47237649263998</v>
       </c>
       <c r="D11">
-        <v>4.917679031752522</v>
+        <v>4.729990356916987</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.0622372531042</v>
+        <v>21.34223038801003</v>
       </c>
       <c r="G11">
-        <v>3.617077872730621</v>
+        <v>2.040317082721686</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.85561723277127</v>
+        <v>9.488615663691567</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.18344135714538</v>
+        <v>15.53974103668012</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.42379472742818</v>
+        <v>31.80652480306233</v>
       </c>
       <c r="C12">
-        <v>12.66682918733896</v>
+        <v>15.6010828345448</v>
       </c>
       <c r="D12">
-        <v>4.927592296833291</v>
+        <v>4.760178451216158</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.06903004278417</v>
+        <v>21.54204132680455</v>
       </c>
       <c r="G12">
-        <v>3.616494590948344</v>
+        <v>2.038523283048645</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.86836164481043</v>
+        <v>9.577927084908646</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.16891915910962</v>
+        <v>15.6328501861071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.3859345394798</v>
+        <v>31.71992761584114</v>
       </c>
       <c r="C13">
-        <v>12.65575216088796</v>
+        <v>15.57343304009886</v>
       </c>
       <c r="D13">
-        <v>4.925459195887486</v>
+        <v>4.753689445605668</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.06750325371124</v>
+        <v>21.49888681107193</v>
       </c>
       <c r="G13">
-        <v>3.616619721186104</v>
+        <v>2.038909175627991</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.86560355140582</v>
+        <v>9.558708839703016</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.17199668672945</v>
+        <v>15.61260849001731</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.26198900856468</v>
+        <v>31.43611788448642</v>
       </c>
       <c r="C14">
-        <v>12.61956262955325</v>
+        <v>15.48299645214985</v>
       </c>
       <c r="D14">
-        <v>4.918495451082054</v>
+        <v>4.732479584292369</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.06276733261129</v>
+        <v>21.35861404958311</v>
       </c>
       <c r="G14">
-        <v>3.617029664931882</v>
+        <v>2.040169307938417</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.85665969389423</v>
+        <v>9.495970788707792</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.18222404871437</v>
+        <v>15.54731618363487</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.18570566672028</v>
+        <v>31.26119987434389</v>
       </c>
       <c r="C15">
-        <v>12.59734624205353</v>
+        <v>15.42739899195478</v>
       </c>
       <c r="D15">
-        <v>4.914224471883544</v>
+        <v>4.719451404032508</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.06005337176236</v>
+        <v>21.27305015088065</v>
       </c>
       <c r="G15">
-        <v>3.617282202868879</v>
+        <v>2.040942471644781</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.85122055712126</v>
+        <v>9.457493940979916</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.18863512507739</v>
+        <v>15.50787425771564</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.74307882092131</v>
+        <v>30.24221595658283</v>
       </c>
       <c r="C16">
-        <v>12.46930521018738</v>
+        <v>15.10572847521662</v>
       </c>
       <c r="D16">
-        <v>4.88966839236384</v>
+        <v>4.644241242083457</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.04736523397434</v>
+        <v>20.78824083514158</v>
       </c>
       <c r="G16">
-        <v>3.61875144188363</v>
+        <v>2.045394089583024</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.8206578460571</v>
+        <v>9.236289006015605</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.22761389174031</v>
+        <v>15.29021753343865</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.46675412766277</v>
+        <v>29.60218139432349</v>
       </c>
       <c r="C17">
-        <v>12.39013656587294</v>
+        <v>14.90570589940338</v>
       </c>
       <c r="D17">
-        <v>4.87453544573854</v>
+        <v>4.597621049780641</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.04213624626151</v>
+        <v>20.49581099224682</v>
       </c>
       <c r="G17">
-        <v>3.61967249152227</v>
+        <v>2.048144808301876</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.80245583056448</v>
+        <v>9.099985140424289</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.25351744408405</v>
+        <v>15.16406432701566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.30610211009949</v>
+        <v>29.22852464861431</v>
       </c>
       <c r="C18">
-        <v>12.34438520344726</v>
+        <v>14.78969004633315</v>
       </c>
       <c r="D18">
-        <v>4.865807576019749</v>
+        <v>4.570633921638725</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.04006680562476</v>
+        <v>20.32946944175061</v>
       </c>
       <c r="G18">
-        <v>3.620209520237216</v>
+        <v>2.049734654192446</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.79218984768787</v>
+        <v>9.021379518280098</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.26914546772143</v>
+        <v>15.09417364959112</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.25141733233956</v>
+        <v>29.10105788142819</v>
       </c>
       <c r="C19">
-        <v>12.32885870183657</v>
+        <v>14.75024480603359</v>
       </c>
       <c r="D19">
-        <v>4.862848515673679</v>
+        <v>4.561467374108005</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.03952716201094</v>
+        <v>20.27347034520464</v>
       </c>
       <c r="G19">
-        <v>3.620392598530905</v>
+        <v>2.050274311718381</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.78874909191471</v>
+        <v>8.99473086563785</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.27456177895334</v>
+        <v>15.070964337209</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.49634808690645</v>
+        <v>29.67088512066008</v>
       </c>
       <c r="C20">
-        <v>12.39858679747897</v>
+        <v>14.92709931470097</v>
       </c>
       <c r="D20">
-        <v>4.876148868643495</v>
+        <v>4.602601798402194</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.04259576695457</v>
+        <v>20.52674909916428</v>
       </c>
       <c r="G20">
-        <v>3.619573692702173</v>
+        <v>2.047851201633132</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.80437247124481</v>
+        <v>9.114516705886341</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.25068445481391</v>
+        <v>15.17721635316921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.29847069441304</v>
+        <v>31.51970374684895</v>
       </c>
       <c r="C21">
-        <v>12.63020270084493</v>
+        <v>15.50960214667334</v>
       </c>
       <c r="D21">
-        <v>4.920542022413593</v>
+        <v>4.738717067557766</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.06411943118408</v>
+        <v>21.39974122258315</v>
       </c>
       <c r="G21">
-        <v>3.61690895544986</v>
+        <v>2.039798908976253</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.85927855843891</v>
+        <v>9.514408531014231</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.17918947465659</v>
+        <v>15.56637898973344</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.80656072651161</v>
+        <v>32.67972336425676</v>
       </c>
       <c r="C22">
-        <v>12.77940467632309</v>
+        <v>15.88129117454158</v>
       </c>
       <c r="D22">
-        <v>4.94931382161916</v>
+        <v>4.826052769924068</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.08655123992911</v>
+        <v>21.98634392704351</v>
       </c>
       <c r="G22">
-        <v>3.615231697757849</v>
+        <v>2.034595465924447</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.89692499782763</v>
+        <v>9.773648564126241</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.13901382617841</v>
+        <v>15.84529951925449</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.53689845052159</v>
+        <v>32.06497194144944</v>
       </c>
       <c r="C23">
-        <v>12.6999834128005</v>
+        <v>15.68375456964329</v>
       </c>
       <c r="D23">
-        <v>4.933981316650288</v>
+        <v>4.779592409318322</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.07381344298359</v>
+        <v>21.67181390230917</v>
       </c>
       <c r="G23">
-        <v>3.616121017133286</v>
+        <v>2.037367704079894</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.87667358477604</v>
+        <v>9.635491117619448</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.15985419915949</v>
+        <v>15.69414898915039</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.4829742212286</v>
+        <v>29.63984190637251</v>
       </c>
       <c r="C24">
-        <v>12.39476718081056</v>
+        <v>14.91743052472482</v>
       </c>
       <c r="D24">
-        <v>4.875419526193646</v>
+        <v>4.600350575769524</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.04238509978239</v>
+        <v>20.51275643012344</v>
       </c>
       <c r="G24">
-        <v>3.619618336266205</v>
+        <v>2.047983914876885</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.80350533885797</v>
+        <v>9.107947737860437</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.2519629581249</v>
+        <v>15.17126211948623</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.281172015905</v>
+        <v>26.81219180409361</v>
       </c>
       <c r="C25">
-        <v>12.05746162088409</v>
+        <v>14.05416577697501</v>
       </c>
       <c r="D25">
-        <v>4.811359109535113</v>
+        <v>4.40049135257548</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.04432491042455</v>
+        <v>19.33389307343435</v>
       </c>
       <c r="G25">
-        <v>3.623668776202825</v>
+        <v>2.0597344293561</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.73237926490968</v>
+        <v>8.531255299102297</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.37914832880835</v>
+        <v>14.70863776518335</v>
       </c>
     </row>
   </sheetData>
